--- a/fhir/ig/mfr/StructureDefinition-NivelComplejidadEstablecimiento.xlsx
+++ b/fhir/ig/mfr/StructureDefinition-NivelComplejidadEstablecimiento.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:17:58-03:00</t>
+    <t>2024-03-15T10:36:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
